--- a/UWNBoundless-GlobalGameJam2020/steam/CDK/2020-7.23/2020.7.23.xlsx
+++ b/UWNBoundless-GlobalGameJam2020/steam/CDK/2020-7.23/2020.7.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCExx\Downloads\renpyprojects\Stalker-GlobalGameJam2020\UWNBoundless-GlobalGameJam2020\steam\CDK\2020-7.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E099CD0-3F1D-4E51-AF11-560AFD50C6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767023E2-A1B2-4511-885C-0ED75EAD619A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7545" yWindow="11205" windowWidth="38010" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
-  <si>
-    <t>TAC3H-KVGZA-75V3I</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>J8IK5-44XVQ-3KA2M</t>
   </si>
@@ -36,19 +33,10 @@
     <t>HDJ2R-JWVHJ-I3EAZ</t>
   </si>
   <si>
-    <t>N23FB-70WZD-26HW6</t>
-  </si>
-  <si>
-    <t>Q7NA6-8NYNR-7QTT3</t>
-  </si>
-  <si>
     <t>FQKLD-BX75Q-5CKHN</t>
   </si>
   <si>
     <t>DE5BM-RT5WQ-EMDEZ</t>
-  </si>
-  <si>
-    <t>5T5H0-48WZ7-AY8EP</t>
   </si>
   <si>
     <t>08F3N-RAFRL-WZ2WZ</t>
@@ -192,13 +180,62 @@
   <si>
     <t>865YR-YYLXN-9Z2AV</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安逸哟68</t>
+  </si>
+  <si>
+    <t>TAC3H-KVGZA-75V3I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百变一点也不怪</t>
+  </si>
+  <si>
+    <t>N23FB-70WZD-26HW6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子稀缺</t>
+  </si>
+  <si>
+    <t>Q7NA6-8NYNR-7QTT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵玖</t>
+  </si>
+  <si>
+    <t>5T5H0-48WZ7-AY8EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni_芝士菠萝球</t>
+  </si>
+  <si>
+    <t>-twob-</t>
+  </si>
+  <si>
+    <t>L65198</t>
+  </si>
+  <si>
+    <t>LOVE鲸鱼鹿</t>
+  </si>
+  <si>
+    <t>落雪惊风</t>
+  </si>
+  <si>
+    <t>柴冉_RingLin</t>
+  </si>
+  <si>
+    <t>ApolloZhiyu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +248,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,10 +282,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,9 +297,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,405 +581,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="https://weibo.com/6961147272/profile" xr:uid="{8B115EEA-EFB1-4F5E-9B5B-347E16CD8469}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://weibo.com/6961147272/profile" xr:uid="{74A0824E-18DA-45B2-9312-94B338A83F24}"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://weibo.com/6090318071/profile" xr:uid="{9E84AFE0-1203-45A3-8868-1861C4A448F9}"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://weibo.com/6090318071/profile" xr:uid="{F14D63A6-9CD3-49F4-86AA-D83315101C51}"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://weibo.com/6629141160/profile" xr:uid="{E2B0FF88-2EAD-40ED-ABF2-D889C364CBAA}"/>
+    <hyperlink ref="C6" r:id="rId6" display="https://weibo.com/6629141160/profile" xr:uid="{8B901E98-E2D3-469D-B8D4-562064B750AB}"/>
+    <hyperlink ref="C7" r:id="rId7" display="https://weibo.com/1927530485/profile" xr:uid="{75D12EA5-E9F9-469A-A052-430A2D8A3FD1}"/>
+    <hyperlink ref="C8" r:id="rId8" display="https://weibo.com/1927530485/profile" xr:uid="{68FA23DF-21B8-4DE1-A3F6-7F0C86C8AEC9}"/>
+    <hyperlink ref="C9" r:id="rId9" display="https://weibo.com/3255839823/profile" xr:uid="{32F6283C-CCD3-4D64-8B43-C58C892B5D54}"/>
+    <hyperlink ref="C10" r:id="rId10" display="https://weibo.com/3255839823/profile" xr:uid="{F9AB711D-00A1-4077-8B63-0EC7FC02361D}"/>
+    <hyperlink ref="C11" r:id="rId11" display="https://weibo.com/2760241045/profile" xr:uid="{51977A7C-A67D-4F44-8E49-4AB5CC12C601}"/>
+    <hyperlink ref="C12" r:id="rId12" display="https://weibo.com/2760241045/profile" xr:uid="{211BEBE7-D2F9-4336-968B-032C7C4AF9BF}"/>
+    <hyperlink ref="C13" r:id="rId13" display="https://weibo.com/7197782391/profile" xr:uid="{EAB47EE2-C7C0-4323-8563-98FE98B33C7A}"/>
+    <hyperlink ref="C14" r:id="rId14" display="https://weibo.com/7197782391/profile" xr:uid="{27BB7472-814D-4DA0-A9BD-AF7C554A1506}"/>
+    <hyperlink ref="C15" r:id="rId15" display="https://weibo.com/5261125624/profile" xr:uid="{D8023756-58DB-4A65-9817-98DCC447D683}"/>
+    <hyperlink ref="C16" r:id="rId16" display="https://weibo.com/5261125624/profile" xr:uid="{715AA2DE-ED53-427D-A6D8-7DD8660721DD}"/>
+    <hyperlink ref="C17" r:id="rId17" display="https://weibo.com/5177946036/profile" xr:uid="{6CB9B9C6-FFA0-4847-8E96-FDE707F5ACC5}"/>
+    <hyperlink ref="C18" r:id="rId18" display="https://weibo.com/5177946036/profile" xr:uid="{442DA7A3-D718-44CD-949D-EC1A661BC9FC}"/>
+    <hyperlink ref="C19" r:id="rId19" display="https://weibo.com/6728711493/profile" xr:uid="{734595ED-FB97-4B40-9BA0-D234C40D7E8B}"/>
+    <hyperlink ref="C20" r:id="rId20" display="https://weibo.com/6728711493/profile" xr:uid="{232AA6C8-4E54-40B9-88F8-4BE5B1517213}"/>
+    <hyperlink ref="C21" r:id="rId21" display="https://weibo.com/2607042732/profile" xr:uid="{53F21012-7DE4-4B42-BF47-357B154EE035}"/>
+    <hyperlink ref="C22" r:id="rId22" display="https://weibo.com/2607042732/profile" xr:uid="{567ABA6B-6FEF-4A6E-AD55-BA63A5BF2AF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>